--- a/spliced/walkingToRunning/2023-03-24_10-07-36/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-07-36/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9458236694335938</v>
+        <v>-1.350502490997314</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.780321598052979</v>
+        <v>-5.659398555755615</v>
       </c>
       <c r="C2" t="n">
-        <v>5.630753517150879</v>
+        <v>-3.780858278274536</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.881309509277344</v>
+        <v>6.421082973480225</v>
       </c>
       <c r="B3" t="n">
-        <v>-30.26239395141602</v>
+        <v>-10.34209537506104</v>
       </c>
       <c r="C3" t="n">
-        <v>12.90286827087402</v>
+        <v>-8.60602855682373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-47.72857666015625</v>
+        <v>-8.985816955566406</v>
       </c>
       <c r="B4" t="n">
-        <v>-15.63389015197754</v>
+        <v>-4.653406143188477</v>
       </c>
       <c r="C4" t="n">
-        <v>-17.3016414642334</v>
+        <v>-4.82445764541626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-12.29190921783447</v>
+        <v>8.638599395751953</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.77882719039917</v>
+        <v>-36.5815658569336</v>
       </c>
       <c r="C5" t="n">
-        <v>-10.05650520324707</v>
+        <v>4.202666282653809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21.71150207519531</v>
+        <v>0.9458236694335938</v>
       </c>
       <c r="B6" t="n">
-        <v>-27.2324275970459</v>
+        <v>-4.780321598052979</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.215962886810303</v>
+        <v>5.630753517150879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32.41067504882812</v>
+        <v>-5.881309509277344</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.009072303771973</v>
+        <v>-30.26239395141602</v>
       </c>
       <c r="C7" t="n">
-        <v>21.43018341064453</v>
+        <v>12.90286827087402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.226425170898438</v>
+        <v>-47.72857666015625</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.756555557250977</v>
+        <v>-15.63389015197754</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5562095642089844</v>
+        <v>-17.3016414642334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.544495105743408</v>
+        <v>-12.29190921783447</v>
       </c>
       <c r="B9" t="n">
-        <v>-37.85799407958984</v>
+        <v>-4.77882719039917</v>
       </c>
       <c r="C9" t="n">
-        <v>14.00184154510498</v>
+        <v>-10.05650520324707</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.75080490112305</v>
+        <v>21.71150207519531</v>
       </c>
       <c r="B10" t="n">
-        <v>-12.57144546508789</v>
+        <v>-27.2324275970459</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.15233612060547</v>
+        <v>-6.215962886810303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77.36283111572266</v>
+        <v>32.41067504882812</v>
       </c>
       <c r="B11" t="n">
-        <v>-23.39109230041504</v>
+        <v>-4.009072303771973</v>
       </c>
       <c r="C11" t="n">
-        <v>3.477614402770996</v>
+        <v>21.43018341064453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-13.44992446899414</v>
+        <v>-4.226425170898438</v>
       </c>
       <c r="B12" t="n">
-        <v>-11.07156848907471</v>
+        <v>-4.756555557250977</v>
       </c>
       <c r="C12" t="n">
-        <v>10.24287509918213</v>
+        <v>-0.5562095642089844</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.557040929794312</v>
+        <v>2.544495105743408</v>
       </c>
       <c r="B13" t="n">
-        <v>-6.614107131958008</v>
+        <v>-37.85799407958984</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.701248645782471</v>
+        <v>14.00184154510498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-82.30638885498047</v>
+        <v>15.75080490112305</v>
       </c>
       <c r="B14" t="n">
-        <v>-41.48257446289063</v>
+        <v>-12.57144546508789</v>
       </c>
       <c r="C14" t="n">
-        <v>-24.42162132263184</v>
+        <v>-16.15233612060547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.51860809326172</v>
+        <v>77.36283111572266</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.532787799835205</v>
+        <v>-23.39109230041504</v>
       </c>
       <c r="C15" t="n">
-        <v>-16.1464672088623</v>
+        <v>3.477614402770996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25.23304176330566</v>
+        <v>-13.44992446899414</v>
       </c>
       <c r="B16" t="n">
-        <v>-12.49789237976074</v>
+        <v>-11.07156848907471</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0257043838501</v>
+        <v>10.24287509918213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25.69987106323243</v>
+        <v>-2.557040929794312</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.908939123153687</v>
+        <v>-6.614107131958008</v>
       </c>
       <c r="C17" t="n">
-        <v>11.61045837402344</v>
+        <v>-1.701248645782471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.486310958862305</v>
+        <v>-82.30638885498047</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.500723719596863</v>
+        <v>-41.48257446289063</v>
       </c>
       <c r="C18" t="n">
-        <v>4.869987487792969</v>
+        <v>-24.42162132263184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-9.412309646606444</v>
+        <v>12.51860809326172</v>
       </c>
       <c r="B19" t="n">
-        <v>-35.61527252197266</v>
+        <v>-2.532787799835205</v>
       </c>
       <c r="C19" t="n">
-        <v>2.476359844207764</v>
+        <v>-16.1464672088623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.05931091308594</v>
+        <v>25.23304176330566</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.656819343566895</v>
+        <v>-12.49789237976074</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.41165542602539</v>
+        <v>10.0257043838501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>25.69987106323243</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.908939123153687</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.61045837402344</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7.486310958862305</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.500723719596863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.869987487792969</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-9.412309646606444</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-35.61527252197266</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.476359844207764</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10.05931091308594</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-4.656819343566895</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-13.41165542602539</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>-0.115725427865982</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>-15.31198501586914</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>-12.16327095031738</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-12.95152854919434</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-7.215466022491455</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.712479591369629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.57819402217865</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.682579040527344</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-4.256365299224854</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-8.448655128479004</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-33.68074035644531</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-12.51845359802246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>71.44110107421875</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.458947658538818</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-16.25710296630859</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7.958407878875732</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-4.263494491577148</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-17.78672790527344</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-30.355712890625</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-23.57818984985352</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.899335861206055</v>
       </c>
     </row>
   </sheetData>
